--- a/src/org/hbrs/se1/ws21/uebung2/test/TemplateTestCase v1.5.xlsx
+++ b/src/org/hbrs/se1/ws21/uebung2/test/TemplateTestCase v1.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hochschulebonnrheinsieg-my.sharepoint.com/personal/tom_keppeler_365h-brs_de/Documents/2021-22 WS 3.Semester/(SE1) Software Engineering 1/Uebung/1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomke\Documents\GitHub\Se1\src\org\hbrs\se1\ws21\uebung2\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_CF0D14E33D62F004DCA5E3712C575CFC60457FC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EBCEE89-4AFE-4B66-98E4-A473E20FFF99}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0BF721-B9E8-419B-90FF-247A34791737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Test Suite" sheetId="8" r:id="rId1"/>
@@ -40,15 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t>Simple Test Suite</t>
   </si>
   <si>
     <t>Test Object:</t>
-  </si>
-  <si>
-    <t>German Translator</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -127,30 +124,15 @@
     <t>Äk1</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>pos</t>
   </si>
   <si>
     <t>Äk3</t>
   </si>
   <si>
-    <t>eins</t>
-  </si>
-  <si>
     <t>Äk2</t>
   </si>
   <si>
-    <t>zwei</t>
-  </si>
-  <si>
-    <t>drei</t>
-  </si>
-  <si>
-    <t>vier</t>
-  </si>
-  <si>
     <t>Zugehörige Äquivalenzklassen:</t>
   </si>
   <si>
@@ -161,15 +143,6 @@
   </si>
   <si>
     <t>input</t>
-  </si>
-  <si>
-    <t>Äk1 x&lt;1</t>
-  </si>
-  <si>
-    <t>Äk2 x&gt;10</t>
-  </si>
-  <si>
-    <t>Äk3 x&gt;0 or x&lt;11</t>
   </si>
   <si>
     <t>Separate Testfälle:</t>
@@ -408,12 +381,42 @@
   <si>
     <t>$$%%</t>
   </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÄK1 x </t>
+  </si>
+  <si>
+    <t>Instanzvariabele x einer Klasse die Member implementiert</t>
+  </si>
+  <si>
+    <t>Äk3 x = null</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>PersonMitMember</t>
+  </si>
+  <si>
+    <t>AutoMitMember</t>
+  </si>
+  <si>
+    <t>erfolg</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -772,11 +775,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,6 +911,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1182,19 +1196,20 @@
   <dimension ref="C2:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="44.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" ht="16.5" thickBot="1"/>
-    <row r="3" spans="3:8">
+    <row r="2" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
@@ -1202,151 +1217,135 @@
       <c r="E3" s="30"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="3:8" ht="16.5" thickBot="1">
+    <row r="4" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="E4" s="54"/>
       <c r="F4" s="55"/>
     </row>
-    <row r="5" spans="3:8" ht="16.5" thickBot="1">
+    <row r="5" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="27"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="49"/>
       <c r="D6" s="50"/>
       <c r="E6" s="38"/>
       <c r="F6" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="3:8" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="3:8" ht="47.1" customHeight="1">
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="E7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="F7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="G7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8">
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="23">
         <v>1</v>
       </c>
       <c r="D8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="24">
-        <v>-1</v>
+      <c r="F8" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="23">
         <v>2</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="24">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="23">
         <v>3</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="24">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="23">
         <v>4</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="24">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="23">
         <v>5</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="24">
-        <v>3</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>6</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="24">
-        <v>4</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="48"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -1354,64 +1353,61 @@
       <c r="G14" s="47"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="3:8">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="3:8">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
+        <v>67</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
+        <v>69</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
     </row>
   </sheetData>
@@ -1432,7 +1428,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="37.375" style="6" customWidth="1"/>
@@ -1442,85 +1438,85 @@
     <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:7">
+    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="43" t="s">
+    </row>
+    <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="C3" s="17" t="s">
+      <c r="D7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="C5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="C6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" thickBot="1">
-      <c r="C7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" thickBot="1">
+    </row>
+    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="20"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="2:7" ht="16.5" thickBot="1">
+    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="47.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -1528,7 +1524,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -1536,7 +1532,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -1544,7 +1540,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1552,7 +1548,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -1560,7 +1556,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -1568,7 +1564,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -1576,7 +1572,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -1584,7 +1580,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -1592,7 +1588,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" ht="16.5" thickBot="1">
+    <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="22"/>
       <c r="D20" s="9"/>
@@ -1600,39 +1596,39 @@
       <c r="F20" s="25"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:7" ht="16.5" thickBot="1">
+    <row r="21" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F21" s="26"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -1650,7 +1646,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="46.625" style="6" customWidth="1"/>
@@ -1660,127 +1656,127 @@
     <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16.5" thickBot="1"/>
-    <row r="3" spans="2:7">
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" s="18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D6" s="41">
         <v>43927</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" thickBot="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" thickBot="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="20"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="2:7" ht="16.5" thickBot="1">
+    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="47.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="23">
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="24"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" ht="31.5">
+    <row r="13" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="23">
         <v>2</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="24"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" ht="47.25">
+    <row r="14" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B14" s="23">
         <v>3</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="24"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -1788,7 +1784,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -1796,7 +1792,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -1804,7 +1800,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -1812,7 +1808,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -1820,7 +1816,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -1828,7 +1824,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" ht="16.5" thickBot="1">
+    <row r="21" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="22"/>
       <c r="D21" s="9"/>
@@ -1836,40 +1832,40 @@
       <c r="F21" s="25"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="2:7" ht="16.5" thickBot="1">
+    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F22" s="26"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="24" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D28" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -1887,7 +1883,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="46.625" style="6" customWidth="1"/>
@@ -1897,149 +1893,149 @@
     <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16.5" thickBot="1"/>
-    <row r="3" spans="2:7">
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" s="18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D6" s="41">
         <v>43927</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" thickBot="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" thickBot="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="20"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="2:7" ht="16.5" thickBot="1">
+    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="47.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="31.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B12" s="23">
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" ht="63">
+    <row r="13" spans="2:7" ht="63" x14ac:dyDescent="0.25">
       <c r="B13" s="23">
         <v>2</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="23">
         <v>3</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:7" ht="31.5">
+    <row r="15" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="23">
         <v>4</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -2047,7 +2043,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -2055,7 +2051,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -2063,7 +2059,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -2071,7 +2067,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -2079,7 +2075,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" ht="16.5" thickBot="1">
+    <row r="21" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="22"/>
       <c r="D21" s="9"/>
@@ -2087,53 +2083,53 @@
       <c r="F21" s="25"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="2:7" ht="16.5" thickBot="1">
+    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F22" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="C25" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="C27" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="C28" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="C29" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
